--- a/EJBComponents/ImageProcessingBenchmark_3/stats/ExcelSheets/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_3/stats/ExcelSheets/PowerConsumption.xlsx
@@ -1418,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111018752"/>
-        <c:axId val="111021056"/>
+        <c:axId val="109441408"/>
+        <c:axId val="109443712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111018752"/>
+        <c:axId val="109441408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111021056"/>
+        <c:crossAx val="109443712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,7 +1546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111021056"/>
+        <c:axId val="109443712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1656,7 +1656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111018752"/>
+        <c:crossAx val="109441408"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2399,11 +2399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111096576"/>
-        <c:axId val="111098880"/>
+        <c:axId val="110309760"/>
+        <c:axId val="110312064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111096576"/>
+        <c:axId val="110309760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,7 +2519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111098880"/>
+        <c:crossAx val="110312064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2527,7 +2527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111098880"/>
+        <c:axId val="110312064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -2637,7 +2637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111096576"/>
+        <c:crossAx val="110309760"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -3948,11 +3948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111967232"/>
-        <c:axId val="111977984"/>
+        <c:axId val="110393984"/>
+        <c:axId val="110404736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111967232"/>
+        <c:axId val="110393984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,7 +4068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111977984"/>
+        <c:crossAx val="110404736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4076,7 +4076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111977984"/>
+        <c:axId val="110404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="74"/>
@@ -4186,7 +4186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111967232"/>
+        <c:crossAx val="110393984"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4929,11 +4929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111844352"/>
-        <c:axId val="111851008"/>
+        <c:axId val="112171648"/>
+        <c:axId val="112178304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111844352"/>
+        <c:axId val="112171648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,7 +5049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111851008"/>
+        <c:crossAx val="112178304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5057,7 +5057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111851008"/>
+        <c:axId val="112178304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -5167,7 +5167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111844352"/>
+        <c:crossAx val="112171648"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -6478,11 +6478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111891968"/>
-        <c:axId val="111902720"/>
+        <c:axId val="112481408"/>
+        <c:axId val="112483712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111891968"/>
+        <c:axId val="112481408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6598,7 +6598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111902720"/>
+        <c:crossAx val="112483712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6606,7 +6606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111902720"/>
+        <c:axId val="112483712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -6716,7 +6716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111891968"/>
+        <c:crossAx val="112481408"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -6740,6 +6740,1974 @@
           <c:y val="4.3060751089764676E-2"/>
           <c:w val="0.4741814774638437"/>
           <c:h val="0.14956616070483245"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Energy Consumption - Local Mode</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3743483145125871"/>
+          <c:y val="4.3143300870169803E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8079815606144048E-2"/>
+          <c:y val="5.273289031240392E-2"/>
+          <c:w val="0.89744540964883435"/>
+          <c:h val="0.87797115513640234"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OneThread_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>49.202399999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.398400000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.191999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.196400000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.196400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.313400000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.243200000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.406999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TwoThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$9:$AH$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>33.369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.991199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.140000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ThreeThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$14:$AH$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>28.730999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.5456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.523399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.928000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.856000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FourThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$19:$AH$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25.999200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.936799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.898599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.624000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.753600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.009799999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.447800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FiveThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$24:$AH$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24.6708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.091999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.131799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.537599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.624000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.667200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.753600000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.883199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>SixThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$29:$AH$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25.325999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.492799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.088000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.889600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.624000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.624000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.009799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>SevenThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$34:$AH$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25.325999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.217599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.624000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.667200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.878399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.753600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.495000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>EightThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$39:$AH$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25.088399999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.001600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.649600000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.685599999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.513600000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.753600000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.969600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="91814528"/>
+        <c:axId val="91812608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91814528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4031272876314449"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91812608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91812608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t>Energy Consumption (Kilo Watts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4825864740423675E-4"/>
+              <c:y val="0.34054955053399744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91814528"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5083007475523551"/>
+          <c:y val="5.0251301234792968E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="0.13949939050179283"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Energy Consumption - Remote Mode</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37559788025618512"/>
+          <c:y val="4.3143300870169803E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8073480504870077E-2"/>
+          <c:y val="5.273289031240392E-2"/>
+          <c:w val="0.89745176793344716"/>
+          <c:h val="0.87509493507839109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OneThread_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$5:$AH$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16.596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.947999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.172800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.894400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.967999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.668400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.688000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TwoThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$10:$AH$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.615999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.668400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.639199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.219199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.318400000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ThreeThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$15:$AH$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19.715999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.4816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.989000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FourThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$20:$AH$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18.823199999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.047999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.9696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.198400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.0848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.170800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FiveThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$25:$AH$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>17.484000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.087999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.506399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.1296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.761199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.929999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>SixThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$30:$AH$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>17.019000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.9872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.6928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.627199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.167999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.275199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.668400000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.961600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.830399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>SevenThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$35:$AH$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>17.495999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.540800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.085199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.409199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.219199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.959000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.048400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>EightThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$40:$AH$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.8414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.923200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.113200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.639199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.228800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.169600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.344400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="135100288"/>
+        <c:axId val="135102848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135100288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41942012967147918"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135102848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135102848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t>Energy Consumption (Kilo Watts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4825864740423675E-4"/>
+              <c:y val="0.34054955053399744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135100288"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5083007475523551"/>
+          <c:y val="5.0251301234792968E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="0.13949939050179283"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8080,6 +10048,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223898</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>77622</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8338,7 +10370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8348,8 +10380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI34" sqref="AI34"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V145" sqref="V145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
